--- a/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_7_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1385387.691759259</v>
+        <v>1345525.944459353</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12244790.98632947</v>
+        <v>12258505.87440718</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809158</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7633923.54775967</v>
+        <v>7633365.979051043</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>145.6243502879759</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>104.0959791986208</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,10 +674,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>146.6016736209788</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>142.3923764883286</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>76.20806014784789</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>237.2918131731947</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1069,10 +1069,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>45.44275720140871</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>213.4089502141179</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>30.59709888020254</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.66548829251629</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>141.1885448588001</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>45.44275720140884</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1370,10 +1370,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1388,7 +1388,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686521</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>12.74825416196581</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1607,10 +1607,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1625,7 +1625,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439292</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,7 +1822,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>210.7924340362406</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1831,7 +1831,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.0898487279631</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1862,7 +1862,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095512</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>182.2715598643492</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>49.87597792716532</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2084,7 +2084,7 @@
         <v>422.6317226868328</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2099,7 +2099,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095512</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="21">
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686561</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>205.3931121155066</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486131</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686541</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2542,7 +2542,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.0898487279631</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399345</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686437</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>25.45817320599537</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686437</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3029,7 +3029,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>412.5342350512113</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3038,16 +3038,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>415.9396722243861</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>390.1981841508243</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>284.7922071050839</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>24.45041490834194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>93.22613354996943</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.771360309553</v>
+        <v>245.6738726739303</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3095,7 +3095,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>391.186409709037</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.1668213893223</v>
+        <v>178.1668213893234</v>
       </c>
       <c r="C34" t="n">
-        <v>160.1553498542504</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.4486361530534</v>
       </c>
       <c r="F34" t="n">
-        <v>160.0456688475625</v>
+        <v>160.0456688475636</v>
       </c>
       <c r="G34" t="n">
-        <v>108.1577655104255</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>77.39373966752596</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407702</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3362093704338</v>
+        <v>158.3362093704349</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8084666607363</v>
+        <v>230.8084666607375</v>
       </c>
       <c r="U34" t="n">
-        <v>267.285116379076</v>
+        <v>267.2851163790772</v>
       </c>
       <c r="V34" t="n">
-        <v>268.7968650824287</v>
+        <v>268.7968650824298</v>
       </c>
       <c r="W34" t="n">
-        <v>262.0063921535894</v>
+        <v>262.0063921535905</v>
       </c>
       <c r="X34" t="n">
-        <v>230.0407699530302</v>
+        <v>230.0407699530314</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9818529915327</v>
+        <v>213.9818529915338</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T35" t="n">
-        <v>183.0417138731736</v>
+        <v>183.0417138731735</v>
       </c>
       <c r="U35" t="n">
         <v>220.0967589369122</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C37" t="n">
         <v>134.5782361172335</v>
@@ -3430,19 +3430,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F37" t="n">
-        <v>134.4685551105456</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H37" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705896</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S37" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T37" t="n">
         <v>205.2313529237194</v>
@@ -3481,7 +3481,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2197513454118</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W37" t="n">
         <v>236.4292784165725</v>
@@ -3490,7 +3490,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4047392545158</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>379.9752792759753</v>
+        <v>379.975279275975</v>
       </c>
       <c r="C38" t="n">
-        <v>386.9571213141934</v>
+        <v>386.9571213141931</v>
       </c>
       <c r="D38" t="n">
-        <v>383.3850932342102</v>
+        <v>383.3850932342099</v>
       </c>
       <c r="E38" t="n">
-        <v>386.0425690809815</v>
+        <v>386.0425690809813</v>
       </c>
       <c r="F38" t="n">
-        <v>385.1983386198543</v>
+        <v>385.198338619854</v>
       </c>
       <c r="G38" t="n">
-        <v>364.6210704138064</v>
+        <v>364.6210704138061</v>
       </c>
       <c r="H38" t="n">
-        <v>259.2150933680661</v>
+        <v>259.2150933680658</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295154</v>
+        <v>67.64901981295125</v>
       </c>
       <c r="T38" t="n">
-        <v>183.0417138731737</v>
+        <v>183.0417138731734</v>
       </c>
       <c r="U38" t="n">
-        <v>220.0967589369124</v>
+        <v>220.0967589369121</v>
       </c>
       <c r="V38" t="n">
-        <v>318.2399193523735</v>
+        <v>318.2399193523732</v>
       </c>
       <c r="W38" t="n">
-        <v>356.7528348300171</v>
+        <v>356.7528348300168</v>
       </c>
       <c r="X38" t="n">
-        <v>371.9281974712909</v>
+        <v>371.9281974712904</v>
       </c>
       <c r="Y38" t="n">
-        <v>365.6092959720191</v>
+        <v>365.6092959720188</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523055</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C40" t="n">
-        <v>134.5782361172337</v>
+        <v>134.5782361172334</v>
       </c>
       <c r="D40" t="n">
-        <v>126.0090037718575</v>
+        <v>126.00900377186</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160355</v>
+        <v>128.8715224160352</v>
       </c>
       <c r="F40" t="n">
-        <v>134.4685551105457</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G40" t="n">
-        <v>128.9197986360707</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H40" t="n">
-        <v>106.6837044342877</v>
+        <v>106.6837044342874</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448305</v>
+        <v>63.09628120448705</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705912</v>
+        <v>10.89362580705885</v>
       </c>
       <c r="S40" t="n">
-        <v>132.759095633417</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T40" t="n">
-        <v>205.2313529237196</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U40" t="n">
-        <v>241.7080026420593</v>
+        <v>241.708002642059</v>
       </c>
       <c r="V40" t="n">
-        <v>243.2197513454119</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W40" t="n">
-        <v>236.4292784165726</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X40" t="n">
-        <v>204.4636562160135</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.4047392545159</v>
+        <v>188.4047392545156</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.9752792759753</v>
+        <v>379.975279275975</v>
       </c>
       <c r="C41" t="n">
-        <v>386.9571213141934</v>
+        <v>386.9571213141931</v>
       </c>
       <c r="D41" t="n">
-        <v>383.3850932342102</v>
+        <v>383.3850932342099</v>
       </c>
       <c r="E41" t="n">
-        <v>386.0425690809815</v>
+        <v>386.0425690809813</v>
       </c>
       <c r="F41" t="n">
-        <v>385.1983386198543</v>
+        <v>385.198338619854</v>
       </c>
       <c r="G41" t="n">
-        <v>364.6210704138064</v>
+        <v>364.6210704138061</v>
       </c>
       <c r="H41" t="n">
-        <v>259.2150933680661</v>
+        <v>259.2150933680658</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295154</v>
+        <v>67.64901981295125</v>
       </c>
       <c r="T41" t="n">
-        <v>183.0417138731737</v>
+        <v>183.0417138731734</v>
       </c>
       <c r="U41" t="n">
-        <v>220.0967589369124</v>
+        <v>220.0967589369121</v>
       </c>
       <c r="V41" t="n">
-        <v>318.2399193523735</v>
+        <v>318.239919352374</v>
       </c>
       <c r="W41" t="n">
-        <v>356.7528348300171</v>
+        <v>356.7528348300168</v>
       </c>
       <c r="X41" t="n">
-        <v>371.9281974712907</v>
+        <v>371.9281974712904</v>
       </c>
       <c r="Y41" t="n">
-        <v>365.6092959720191</v>
+        <v>365.6092959720188</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5897076523055</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C43" t="n">
-        <v>134.5782361172337</v>
+        <v>134.5782361172334</v>
       </c>
       <c r="D43" t="n">
-        <v>126.0090037718575</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160355</v>
+        <v>128.8715224160352</v>
       </c>
       <c r="F43" t="n">
-        <v>134.4685551105457</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G43" t="n">
-        <v>128.9197986360707</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H43" t="n">
-        <v>106.6837044342877</v>
+        <v>106.6837044342899</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448733</v>
+        <v>63.09628120448705</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705912</v>
+        <v>10.89362580705885</v>
       </c>
       <c r="S43" t="n">
-        <v>132.759095633417</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T43" t="n">
-        <v>205.2313529237196</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U43" t="n">
-        <v>241.7080026420593</v>
+        <v>241.708002642059</v>
       </c>
       <c r="V43" t="n">
-        <v>243.2197513454079</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W43" t="n">
-        <v>236.4292784165726</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X43" t="n">
-        <v>204.4636562160135</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.4047392545159</v>
+        <v>188.4047392545156</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>379.9752792759753</v>
+        <v>379.975279275975</v>
       </c>
       <c r="C44" t="n">
-        <v>386.9571213141934</v>
+        <v>386.9571213141931</v>
       </c>
       <c r="D44" t="n">
-        <v>383.3850932342102</v>
+        <v>383.3850932342099</v>
       </c>
       <c r="E44" t="n">
-        <v>386.0425690809815</v>
+        <v>386.0425690809813</v>
       </c>
       <c r="F44" t="n">
-        <v>385.1983386198543</v>
+        <v>385.198338619854</v>
       </c>
       <c r="G44" t="n">
-        <v>364.6210704138064</v>
+        <v>364.6210704138061</v>
       </c>
       <c r="H44" t="n">
-        <v>259.2150933680661</v>
+        <v>259.2150933680658</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295154</v>
+        <v>67.64901981295125</v>
       </c>
       <c r="T44" t="n">
-        <v>183.0417138731737</v>
+        <v>183.0417138731734</v>
       </c>
       <c r="U44" t="n">
-        <v>220.0967589369124</v>
+        <v>220.0967589369121</v>
       </c>
       <c r="V44" t="n">
-        <v>318.2399193523735</v>
+        <v>318.2399193523732</v>
       </c>
       <c r="W44" t="n">
-        <v>356.7528348300171</v>
+        <v>356.7528348300168</v>
       </c>
       <c r="X44" t="n">
-        <v>371.9281974712907</v>
+        <v>371.9281974712904</v>
       </c>
       <c r="Y44" t="n">
-        <v>365.6092959720191</v>
+        <v>365.6092959720188</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5897076523055</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C46" t="n">
-        <v>134.5782361172337</v>
+        <v>134.5782361172334</v>
       </c>
       <c r="D46" t="n">
-        <v>126.0090037718575</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8715224160355</v>
+        <v>128.8715224160352</v>
       </c>
       <c r="F46" t="n">
-        <v>134.4685551105457</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G46" t="n">
-        <v>128.9197986360707</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H46" t="n">
-        <v>106.6837044342877</v>
+        <v>106.6837044342874</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448733</v>
+        <v>63.09628120448705</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705912</v>
+        <v>10.89362580705885</v>
       </c>
       <c r="S46" t="n">
-        <v>132.7590956334122</v>
+        <v>132.7590956334195</v>
       </c>
       <c r="T46" t="n">
-        <v>205.2313529237196</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U46" t="n">
-        <v>241.7080026420593</v>
+        <v>241.708002642059</v>
       </c>
       <c r="V46" t="n">
-        <v>243.2197513454119</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W46" t="n">
-        <v>236.4292784165726</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X46" t="n">
-        <v>204.4636562160135</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y46" t="n">
-        <v>188.4047392545159</v>
+        <v>188.4047392545156</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1017.976146597277</v>
+        <v>461.1362246888525</v>
       </c>
       <c r="C2" t="n">
-        <v>591.0754166105773</v>
+        <v>438.2758987425567</v>
       </c>
       <c r="D2" t="n">
-        <v>167.7827957955776</v>
+        <v>419.0236819679611</v>
       </c>
       <c r="E2" t="n">
-        <v>62.63534205959701</v>
+        <v>397.0871461562227</v>
       </c>
       <c r="F2" t="n">
-        <v>41.55156428940131</v>
+        <v>376.003368386027</v>
       </c>
       <c r="G2" t="n">
-        <v>41.252905919254</v>
+        <v>375.7047100158796</v>
       </c>
       <c r="H2" t="n">
-        <v>41.252905919254</v>
+        <v>77.83633148991444</v>
       </c>
       <c r="I2" t="n">
-        <v>41.252905919254</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="J2" t="n">
-        <v>41.252905919254</v>
+        <v>405.5429190502812</v>
       </c>
       <c r="K2" t="n">
-        <v>41.252905919254</v>
+        <v>936.9187394384285</v>
       </c>
       <c r="L2" t="n">
-        <v>551.7576166700222</v>
+        <v>966.665036011085</v>
       </c>
       <c r="M2" t="n">
-        <v>1062.26232742079</v>
+        <v>1498.040856399232</v>
       </c>
       <c r="N2" t="n">
-        <v>1572.767038171559</v>
+        <v>1498.040856399232</v>
       </c>
       <c r="O2" t="n">
-        <v>2062.6452959627</v>
+        <v>1498.040856399232</v>
       </c>
       <c r="P2" t="n">
-        <v>2062.6452959627</v>
+        <v>2029.41667678738</v>
       </c>
       <c r="Q2" t="n">
-        <v>2062.6452959627</v>
+        <v>2029.41667678738</v>
       </c>
       <c r="R2" t="n">
-        <v>2062.6452959627</v>
+        <v>2146.973011669282</v>
       </c>
       <c r="S2" t="n">
-        <v>2062.6452959627</v>
+        <v>2042.605717542423</v>
       </c>
       <c r="T2" t="n">
-        <v>2062.6452959627</v>
+        <v>1821.680146587056</v>
       </c>
       <c r="U2" t="n">
-        <v>1804.290386559112</v>
+        <v>1821.680146587056</v>
       </c>
       <c r="V2" t="n">
-        <v>1446.800971685362</v>
+        <v>1821.680146587056</v>
       </c>
       <c r="W2" t="n">
-        <v>1446.800971685362</v>
+        <v>1425.288796887403</v>
       </c>
       <c r="X2" t="n">
-        <v>1439.121376893513</v>
+        <v>1013.56879805515</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.824510888807</v>
+        <v>608.2315280100403</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>608.3763969507092</v>
+        <v>610.0629512648409</v>
       </c>
       <c r="C3" t="n">
-        <v>490.870493468214</v>
+        <v>492.5570477823456</v>
       </c>
       <c r="D3" t="n">
-        <v>387.030534983499</v>
+        <v>388.7170892976307</v>
       </c>
       <c r="E3" t="n">
-        <v>282.3286012564362</v>
+        <v>284.0151555705679</v>
       </c>
       <c r="F3" t="n">
-        <v>188.6827709393404</v>
+        <v>190.3693252534721</v>
       </c>
       <c r="G3" t="n">
-        <v>94.62899915694442</v>
+        <v>96.31555347107606</v>
       </c>
       <c r="H3" t="n">
-        <v>41.252905919254</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="I3" t="n">
-        <v>41.252905919254</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="J3" t="n">
-        <v>41.252905919254</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="K3" t="n">
-        <v>551.7576166700222</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="L3" t="n">
-        <v>793.271038801513</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="M3" t="n">
-        <v>793.271038801513</v>
+        <v>574.3152806215329</v>
       </c>
       <c r="N3" t="n">
-        <v>793.271038801513</v>
+        <v>706.8561399528976</v>
       </c>
       <c r="O3" t="n">
-        <v>793.271038801513</v>
+        <v>1238.231960341045</v>
       </c>
       <c r="P3" t="n">
-        <v>1303.775749552281</v>
+        <v>1769.607780729192</v>
       </c>
       <c r="Q3" t="n">
-        <v>1767.921226415061</v>
+        <v>1769.607780729192</v>
       </c>
       <c r="R3" t="n">
-        <v>1849.940536499764</v>
+        <v>1851.627090813895</v>
       </c>
       <c r="S3" t="n">
-        <v>1768.616289061018</v>
+        <v>1770.30284337515</v>
       </c>
       <c r="T3" t="n">
-        <v>1626.736353358697</v>
+        <v>1628.422907672828</v>
       </c>
       <c r="U3" t="n">
-        <v>1441.968157278333</v>
+        <v>1443.654711592465</v>
       </c>
       <c r="V3" t="n">
-        <v>1236.995018417599</v>
+        <v>1238.681572731731</v>
       </c>
       <c r="W3" t="n">
-        <v>1040.473641250817</v>
+        <v>1042.160195564948</v>
       </c>
       <c r="X3" t="n">
-        <v>876.9962950174796</v>
+        <v>878.6828493316112</v>
       </c>
       <c r="Y3" t="n">
-        <v>737.303406370772</v>
+        <v>738.9899606849036</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>980.6377599516453</v>
+        <v>1126.120582757623</v>
       </c>
       <c r="C4" t="n">
-        <v>808.6651968305613</v>
+        <v>954.1480196365385</v>
       </c>
       <c r="D4" t="n">
-        <v>645.348423957332</v>
+        <v>790.8312467633092</v>
       </c>
       <c r="E4" t="n">
-        <v>479.1402181101855</v>
+        <v>624.6230409161627</v>
       </c>
       <c r="F4" t="n">
-        <v>307.2784438847459</v>
+        <v>452.7612666907232</v>
       </c>
       <c r="G4" t="n">
-        <v>141.021474178978</v>
+        <v>286.5042969849553</v>
       </c>
       <c r="H4" t="n">
-        <v>141.021474178978</v>
+        <v>142.7080284931097</v>
       </c>
       <c r="I4" t="n">
-        <v>41.252905919254</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="J4" t="n">
-        <v>98.74423414341202</v>
+        <v>100.4307884575437</v>
       </c>
       <c r="K4" t="n">
-        <v>325.2718353492492</v>
+        <v>326.9583896633808</v>
       </c>
       <c r="L4" t="n">
-        <v>679.9611566436699</v>
+        <v>681.6477109578016</v>
       </c>
       <c r="M4" t="n">
-        <v>912.1263142442378</v>
+        <v>1072.833505928052</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.617825120274</v>
+        <v>1450.325016804088</v>
       </c>
       <c r="O4" t="n">
-        <v>1645.045953800037</v>
+        <v>1805.753145483851</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.645165721938</v>
+        <v>2019.97288142852</v>
       </c>
       <c r="Q4" t="n">
-        <v>2062.6452959627</v>
+        <v>2146.973011669282</v>
       </c>
       <c r="R4" t="n">
-        <v>2062.6452959627</v>
+        <v>2099.934398356455</v>
       </c>
       <c r="S4" t="n">
-        <v>2062.6452959627</v>
+        <v>1929.79935087559</v>
       </c>
       <c r="T4" t="n">
-        <v>2062.6452959627</v>
+        <v>1686.46000310149</v>
       </c>
       <c r="U4" t="n">
-        <v>2062.6452959627</v>
+        <v>1686.46000310149</v>
       </c>
       <c r="V4" t="n">
-        <v>1914.562797355651</v>
+        <v>1686.46000310149</v>
       </c>
       <c r="W4" t="n">
-        <v>1639.710393528164</v>
+        <v>1686.46000310149</v>
       </c>
       <c r="X4" t="n">
-        <v>1397.146496973969</v>
+        <v>1542.629319779946</v>
       </c>
       <c r="Y4" t="n">
-        <v>1170.803728663711</v>
+        <v>1316.286551469688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595575</v>
+        <v>1375.3890582841</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728575</v>
+        <v>948.4883282973997</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>525.1957074823999</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>503.2591716706615</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>78.13498986006175</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>77.83633148991444</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>77.83633148991444</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>405.5429190502812</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>936.9187394384285</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>966.665036011085</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074144</v>
+        <v>966.665036011085</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>966.665036011085</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1498.040856399232</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2029.41667678738</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2029.41667678738</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2146.973011669282</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2042.605717542423</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2042.605717542423</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2042.605717542423</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>2042.605717542423</v>
       </c>
       <c r="W5" t="n">
-        <v>1471.030487888973</v>
+        <v>2042.605717542423</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.052649355793</v>
+        <v>2034.926122750574</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106835</v>
+        <v>1795.23742257563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611.6217160807028</v>
+        <v>610.0629512648409</v>
       </c>
       <c r="C6" t="n">
-        <v>494.1158125982075</v>
+        <v>492.5570477823456</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>388.7170892976307</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>284.0151555705679</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>190.3693252534721</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>96.31555347107606</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>314.6369495129767</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>314.6369495129767</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>314.6369495129767</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>846.0127699011241</v>
       </c>
       <c r="N6" t="n">
-        <v>316.1957143288386</v>
+        <v>1305.462303866413</v>
       </c>
       <c r="O6" t="n">
-        <v>866.8612493132769</v>
+        <v>1305.462303866413</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1305.462303866413</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1769.607780729192</v>
       </c>
       <c r="R6" t="n">
-        <v>1853.185855629757</v>
+        <v>1851.627090813895</v>
       </c>
       <c r="S6" t="n">
-        <v>1771.861608191012</v>
+        <v>1770.30284337515</v>
       </c>
       <c r="T6" t="n">
-        <v>1629.98167248869</v>
+        <v>1628.422907672828</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.213476408327</v>
+        <v>1443.654711592465</v>
       </c>
       <c r="V6" t="n">
-        <v>1240.240337547593</v>
+        <v>1238.681572731731</v>
       </c>
       <c r="W6" t="n">
-        <v>1043.71896038081</v>
+        <v>1042.160195564948</v>
       </c>
       <c r="X6" t="n">
-        <v>880.2416141474731</v>
+        <v>878.6828493316112</v>
       </c>
       <c r="Y6" t="n">
-        <v>740.5487255007655</v>
+        <v>738.9899606849036</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1073.812554264678</v>
+        <v>810.3517511446929</v>
       </c>
       <c r="C7" t="n">
-        <v>901.8399911435943</v>
+        <v>810.3517511446929</v>
       </c>
       <c r="D7" t="n">
-        <v>738.523218270365</v>
+        <v>647.0349782714636</v>
       </c>
       <c r="E7" t="n">
-        <v>572.3150124232185</v>
+        <v>480.8267724243171</v>
       </c>
       <c r="F7" t="n">
-        <v>400.4532381977789</v>
+        <v>308.9649981988775</v>
       </c>
       <c r="G7" t="n">
-        <v>234.196268492011</v>
+        <v>142.7080284931097</v>
       </c>
       <c r="H7" t="n">
-        <v>90.40000000000001</v>
+        <v>142.7080284931097</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>42.93946023338565</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>100.4307884575437</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>326.9583896633808</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>681.6477109578016</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1072.833505928052</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1450.325016804088</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1805.753145483851</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2096.352357405752</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2146.973011669282</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2146.973011669282</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>1976.837964188417</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>1733.498616414317</v>
       </c>
       <c r="U7" t="n">
-        <v>2007.737591668684</v>
+        <v>1517.93402023844</v>
       </c>
       <c r="V7" t="n">
-        <v>2007.737591668684</v>
+        <v>1517.93402023844</v>
       </c>
       <c r="W7" t="n">
-        <v>1732.885187841197</v>
+        <v>1243.081616410953</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.321291287002</v>
+        <v>1000.517719856759</v>
       </c>
       <c r="Y7" t="n">
-        <v>1263.978522976744</v>
+        <v>1000.517719856759</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.9297397222204</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="C8" t="n">
-        <v>107.0694137759246</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>116.829168004879</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2195.956213783067</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.0306428277</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1716.675733424112</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1359.186318550362</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>962.7949688507088</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>551.074970018456</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.7376999733464</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4990,22 +4990,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2007.737591668684</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1961.835816717766</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1686.983412890279</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988734</v>
       </c>
       <c r="G11" t="n">
         <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1171.715112440169</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2101.340160059446</v>
+        <v>1007.53276669084</v>
       </c>
       <c r="M11" t="n">
-        <v>3105.626261478504</v>
+        <v>2011.818868109898</v>
       </c>
       <c r="N11" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164564</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C12" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D12" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E12" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F12" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
         <v>1828.971033901635</v>
@@ -5160,10 +5160,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y12" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.592292076367</v>
+        <v>543.5554397491856</v>
       </c>
       <c r="C13" t="n">
-        <v>926.6197289552834</v>
+        <v>371.5828766281016</v>
       </c>
       <c r="D13" t="n">
-        <v>763.3029560820542</v>
+        <v>371.5828766281016</v>
       </c>
       <c r="E13" t="n">
-        <v>597.0947502349077</v>
+        <v>371.5828766281016</v>
       </c>
       <c r="F13" t="n">
-        <v>425.2329760094681</v>
+        <v>199.721102402662</v>
       </c>
       <c r="G13" t="n">
-        <v>258.9760063037002</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1797378118546</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5203,7 +5203,7 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M13" t="n">
         <v>1132.196759100495</v>
@@ -5215,34 +5215,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="T13" t="n">
-        <v>2039.376393044857</v>
+        <v>2039.376393044858</v>
       </c>
       <c r="U13" t="n">
-        <v>2039.376393044857</v>
+        <v>1759.191944545162</v>
       </c>
       <c r="V13" t="n">
-        <v>1757.664925652886</v>
+        <v>1477.480477153191</v>
       </c>
       <c r="W13" t="n">
-        <v>1757.664925652886</v>
+        <v>1202.628073325704</v>
       </c>
       <c r="X13" t="n">
-        <v>1515.101029098691</v>
+        <v>960.0641767715091</v>
       </c>
       <c r="Y13" t="n">
-        <v>1288.758260788433</v>
+        <v>733.7214084612513</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
         <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5285,43 +5285,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2110.0395278175</v>
+        <v>2856.96351826071</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596601</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C15" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D15" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E15" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F15" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
@@ -5355,28 +5355,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N15" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O15" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P15" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5397,10 +5397,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y15" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>446.1370507523521</v>
+        <v>612.3452565994985</v>
       </c>
       <c r="C16" t="n">
-        <v>274.1644876312681</v>
+        <v>440.3726934784145</v>
       </c>
       <c r="D16" t="n">
-        <v>274.1644876312681</v>
+        <v>440.3726934784145</v>
       </c>
       <c r="E16" t="n">
         <v>274.1644876312681</v>
@@ -5461,25 +5461,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1307.345429672325</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W16" t="n">
-        <v>1032.493025844838</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X16" t="n">
-        <v>789.9291292906431</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y16" t="n">
-        <v>636.3030194644177</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="17">
@@ -5498,67 +5498,67 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F18" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K18" t="n">
-        <v>700.2342829360799</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L18" t="n">
-        <v>700.2342829360799</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M18" t="n">
-        <v>700.2342829360799</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>700.2342829360799</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5634,10 +5634,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.5168264363575</v>
+        <v>855.9588572096892</v>
       </c>
       <c r="C19" t="n">
-        <v>324.5442633152735</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="D19" t="n">
-        <v>324.5442633152735</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.867550157398</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299864</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M19" t="n">
         <v>1132.196759100495</v>
@@ -5689,34 +5689,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025266</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2065.542080025266</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>2065.542080025266</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1783.830612633295</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.589460012876</v>
+        <v>1508.978208805808</v>
       </c>
       <c r="X19" t="n">
-        <v>913.0255634586812</v>
+        <v>1266.414312251613</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.6827951484231</v>
+        <v>1040.071543941355</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988737</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>3561.711740982685</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>4406.856391133497</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F21" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>1364.825557038856</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M21" t="n">
-        <v>1364.825557038856</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5871,10 +5871,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523523</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312682</v>
+        <v>274.164487631268</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312682</v>
+        <v>274.164487631268</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312682</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5908,13 +5908,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M22" t="n">
         <v>1132.196759100495</v>
@@ -5926,34 +5926,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1661.773555548328</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1380.062088156357</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.209684328871</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746758</v>
+        <v>862.6457877746751</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.303019464418</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,64 +5975,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.53276669084</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109898</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U23" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V23" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W23" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X23" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y23" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F24" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H24" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K24" t="n">
-        <v>964.4851292537592</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L24" t="n">
-        <v>1364.825557038856</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M24" t="n">
-        <v>1364.825557038856</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6108,10 +6108,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>274.164487631268</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>274.164487631268</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
         <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6163,31 +6163,31 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548328</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156357</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906431</v>
+        <v>862.6457877746753</v>
       </c>
       <c r="Y25" t="n">
         <v>636.3030194644177</v>
@@ -6233,19 +6233,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,28 +6300,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>700.2342829360799</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>1446.844867123559</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683195</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472354</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
         <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6409,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803851</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6537,28 +6537,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>1446.844867123559</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>1446.844867123559</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5554397491846</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>371.5828766281006</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>371.5828766281006</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>371.5828766281006</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>371.5828766281006</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058286</v>
@@ -6628,16 +6628,16 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q31" t="n">
         <v>2282.715740818957</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822125</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>960.0641767715083</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.7214084612503</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2493.361704650894</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2076.660457124418</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261616</v>
+        <v>1653.367836309419</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409474</v>
+        <v>1227.390896457276</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>807.2498134023406</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>413.110233452013</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>125.4413373862717</v>
       </c>
       <c r="I32" t="n">
-        <v>102.3027134058285</v>
+        <v>100.7439485899667</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>463.3474074068622</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>1178.855715382361</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>2108.480763001638</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2108.480763001638</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>2910.131685803507</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3755.27633595432</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4463.555615112247</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4919.641094616431</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5037.197429498333</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>4943.029617831697</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4722.104046876329</v>
       </c>
       <c r="U32" t="n">
-        <v>4531.487895805612</v>
+        <v>4473.948619932966</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4116.459205059215</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3720.067855359563</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3308.34785652731</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354846</v>
+        <v>2913.210068942424</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>667.8674396214219</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>550.3615361389267</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>446.5215776542117</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>341.8196439271489</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>248.1738136100531</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>154.1200418276571</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>100.7439485899667</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>108.1905915518785</v>
       </c>
       <c r="J33" t="n">
-        <v>381.4468456473314</v>
+        <v>108.1905915518785</v>
       </c>
       <c r="K33" t="n">
-        <v>971.931772215671</v>
+        <v>108.1905915518785</v>
       </c>
       <c r="L33" t="n">
-        <v>971.931772215671</v>
+        <v>108.1905915518785</v>
       </c>
       <c r="M33" t="n">
-        <v>971.931772215671</v>
+        <v>820.1166326976065</v>
       </c>
       <c r="N33" t="n">
-        <v>971.931772215671</v>
+        <v>1909.431579170476</v>
       </c>
       <c r="O33" t="n">
-        <v>971.931772215671</v>
+        <v>1909.431579170476</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1909.431579170476</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1909.431579170476</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>1909.431579170476</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>1828.107331731731</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>1686.227396029409</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>1501.459199949046</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>1296.486061088312</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>1099.964683921529</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>936.4873376881923</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>796.7944490414847</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>534.9883540242512</v>
+        <v>496.5904583557677</v>
       </c>
       <c r="C34" t="n">
-        <v>373.2152733633922</v>
+        <v>496.5904583557677</v>
       </c>
       <c r="D34" t="n">
-        <v>373.2152733633922</v>
+        <v>496.5904583557677</v>
       </c>
       <c r="E34" t="n">
-        <v>373.2152733633922</v>
+        <v>340.5817349688451</v>
       </c>
       <c r="F34" t="n">
-        <v>211.5529815981775</v>
+        <v>178.9194432036293</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>178.9194432036293</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>178.9194432036293</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>100.7439485899667</v>
       </c>
       <c r="J34" t="n">
-        <v>169.7905543892531</v>
+        <v>168.2317895733901</v>
       </c>
       <c r="K34" t="n">
-        <v>406.3146683543567</v>
+        <v>404.7559035384926</v>
       </c>
       <c r="L34" t="n">
-        <v>771.000502408044</v>
+        <v>769.4417375921787</v>
       </c>
       <c r="M34" t="n">
-        <v>1172.182810137561</v>
+        <v>1170.624045321695</v>
       </c>
       <c r="N34" t="n">
-        <v>1559.670833772863</v>
+        <v>1558.112068956996</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.095475211893</v>
+        <v>1923.536710396024</v>
       </c>
       <c r="P34" t="n">
-        <v>2225.69119989306</v>
+        <v>2224.132435077191</v>
       </c>
       <c r="Q34" t="n">
-        <v>2362.687842893089</v>
+        <v>2361.129078077218</v>
       </c>
       <c r="R34" t="n">
-        <v>2362.687842893089</v>
+        <v>2324.289947224615</v>
       </c>
       <c r="S34" t="n">
-        <v>2202.752277872449</v>
+        <v>2164.354382203974</v>
       </c>
       <c r="T34" t="n">
-        <v>1969.612412558574</v>
+        <v>1931.214516890097</v>
       </c>
       <c r="U34" t="n">
-        <v>1699.627446519103</v>
+        <v>1661.229550850625</v>
       </c>
       <c r="V34" t="n">
-        <v>1428.115461587357</v>
+        <v>1389.717565918878</v>
       </c>
       <c r="W34" t="n">
-        <v>1163.462540220095</v>
+        <v>1125.064644551615</v>
       </c>
       <c r="X34" t="n">
-        <v>931.0981261261248</v>
+        <v>892.7002304576436</v>
       </c>
       <c r="Y34" t="n">
-        <v>714.9548402760919</v>
+        <v>676.5569446076095</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D35" t="n">
         <v>1500.463591181375</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815408</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
-        <v>91.29483210793289</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K35" t="n">
-        <v>806.8031400834319</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>806.8031400834319</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>1578.98113809702</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N35" t="n">
-        <v>2555.232196583721</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O35" t="n">
-        <v>3400.376846734534</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P35" t="n">
-        <v>4108.656125892461</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151239</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I36" t="n">
-        <v>98.74147506984472</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J36" t="n">
-        <v>370.4389643494358</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="K36" t="n">
-        <v>960.9238909177755</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="L36" t="n">
-        <v>960.9238909177755</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="M36" t="n">
-        <v>960.9238909177755</v>
+        <v>1154.72801304589</v>
       </c>
       <c r="N36" t="n">
-        <v>960.9238909177755</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O36" t="n">
-        <v>960.9238909177755</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P36" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q36" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7072,10 +7072,10 @@
         <v>922.2312984619905</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
         <v>528.8386092648932</v>
@@ -7090,22 +7090,22 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910037</v>
+        <v>184.1040156910044</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557541</v>
+        <v>445.9494722557549</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090889</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O37" t="n">
         <v>2066.015649511878</v>
@@ -7117,7 +7117,7 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S37" t="n">
         <v>2409.146943361583</v>
@@ -7160,64 +7160,64 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815415</v>
+        <v>721.4323712815419</v>
       </c>
       <c r="G38" t="n">
-        <v>353.1282597524441</v>
+        <v>353.1282597524448</v>
       </c>
       <c r="H38" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793393</v>
       </c>
       <c r="I38" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J38" t="n">
-        <v>91.2948321079329</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K38" t="n">
-        <v>806.803140083432</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N38" t="n">
-        <v>2555.232196583722</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O38" t="n">
-        <v>3400.376846734534</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P38" t="n">
-        <v>4108.656125892462</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.741605396645</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396645</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.40926215124</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077327</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562897</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744698</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793899</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="39">
@@ -7233,10 +7233,10 @@
         <v>540.9124196568929</v>
       </c>
       <c r="D39" t="n">
-        <v>437.072461172178</v>
+        <v>437.0724611721779</v>
       </c>
       <c r="E39" t="n">
-        <v>332.3705274451152</v>
+        <v>332.3705274451151</v>
       </c>
       <c r="F39" t="n">
         <v>238.7246971280193</v>
@@ -7245,34 +7245,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>98.74147506984474</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J39" t="n">
-        <v>370.4389643494358</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="K39" t="n">
-        <v>960.9238909177755</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="L39" t="n">
-        <v>960.9238909177755</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="M39" t="n">
-        <v>960.9238909177755</v>
+        <v>1154.72801304589</v>
       </c>
       <c r="N39" t="n">
-        <v>960.9238909177755</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O39" t="n">
-        <v>960.9238909177755</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P39" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q39" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R39" t="n">
         <v>1899.982462688443</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619875</v>
+        <v>922.2312984619923</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223576</v>
+        <v>786.2936862223626</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305822</v>
+        <v>659.0118642305849</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648897</v>
+        <v>528.8386092648927</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209041</v>
+        <v>393.0117859209075</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965903</v>
+        <v>262.7897670965939</v>
       </c>
       <c r="H40" t="n">
-        <v>155.0284494861986</v>
+        <v>155.0284494862026</v>
       </c>
       <c r="I40" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090887</v>
+        <v>835.9566489090888</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238253</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O40" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511879</v>
       </c>
       <c r="P40" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q40" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960996</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361585</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.842546468936</v>
+        <v>2201.842546468939</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.693048850694</v>
+        <v>1957.693048850698</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.016532340177</v>
+        <v>1712.016532340181</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394144</v>
+        <v>1473.199079394148</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.670133721403</v>
+        <v>1266.670133721407</v>
       </c>
       <c r="Y40" t="n">
-        <v>1076.362316292599</v>
+        <v>1076.362316292604</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.463591181376</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815415</v>
+        <v>721.4323712815408</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524441</v>
+        <v>353.1282597524437</v>
       </c>
       <c r="H41" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I41" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
-        <v>91.2948321079329</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>806.803140083432</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N41" t="n">
-        <v>2712.67924618941</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O41" t="n">
-        <v>3557.823896340222</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.10317549815</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q41" t="n">
-        <v>4564.741605396645</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396645</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.40926215124</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077327</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562897</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744698</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793899</v>
+        <v>3031.702772793896</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="42">
@@ -7470,10 +7470,10 @@
         <v>540.9124196568929</v>
       </c>
       <c r="D42" t="n">
-        <v>437.072461172178</v>
+        <v>437.0724611721779</v>
       </c>
       <c r="E42" t="n">
-        <v>332.3705274451152</v>
+        <v>332.3705274451151</v>
       </c>
       <c r="F42" t="n">
         <v>238.7246971280193</v>
@@ -7482,34 +7482,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984474</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J42" t="n">
-        <v>370.4389643494358</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="K42" t="n">
-        <v>960.9238909177755</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="L42" t="n">
-        <v>960.9238909177755</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="M42" t="n">
-        <v>960.9238909177755</v>
+        <v>1154.72801304589</v>
       </c>
       <c r="N42" t="n">
-        <v>960.9238909177755</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O42" t="n">
-        <v>960.9238909177755</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P42" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q42" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7543,64 +7543,64 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619916</v>
+        <v>922.2312984619923</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223617</v>
+        <v>786.2936862223626</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305862</v>
+        <v>659.0118642305875</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648939</v>
+        <v>528.8386092648954</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209084</v>
+        <v>393.01178592091</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965946</v>
+        <v>262.7897670965964</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862029</v>
+        <v>155.0284494862026</v>
       </c>
       <c r="I43" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J43" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557542</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L43" t="n">
-        <v>835.956648909088</v>
+        <v>835.9566489090888</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960993</v>
+        <v>2543.247039960996</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361582</v>
+        <v>2409.146943361585</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468936</v>
+        <v>2201.842546468939</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850694</v>
+        <v>1957.693048850698</v>
       </c>
       <c r="V43" t="n">
         <v>1712.016532340181</v>
@@ -7612,7 +7612,7 @@
         <v>1266.670133721407</v>
       </c>
       <c r="Y43" t="n">
-        <v>1076.362316292603</v>
+        <v>1076.362316292604</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D44" t="n">
-        <v>1500.463591181376</v>
+        <v>1500.463591181375</v>
       </c>
       <c r="E44" t="n">
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815415</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524441</v>
+        <v>353.1282597524437</v>
       </c>
       <c r="H44" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I44" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7655,43 +7655,43 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>3103.317747938662</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N44" t="n">
-        <v>4079.568806425363</v>
+        <v>3075.282705006305</v>
       </c>
       <c r="O44" t="n">
-        <v>4108.656125892462</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P44" t="n">
-        <v>4108.656125892462</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q44" t="n">
-        <v>4564.741605396645</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396645</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.40926215124</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077327</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562897</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W44" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X44" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="45">
@@ -7707,10 +7707,10 @@
         <v>540.9124196568929</v>
       </c>
       <c r="D45" t="n">
-        <v>437.072461172178</v>
+        <v>437.0724611721779</v>
       </c>
       <c r="E45" t="n">
-        <v>332.3705274451152</v>
+        <v>332.3705274451151</v>
       </c>
       <c r="F45" t="n">
         <v>238.7246971280193</v>
@@ -7719,34 +7719,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984474</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J45" t="n">
-        <v>370.4389643494358</v>
+        <v>362.9923213875239</v>
       </c>
       <c r="K45" t="n">
-        <v>960.9238909177755</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="L45" t="n">
-        <v>960.9238909177755</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="M45" t="n">
-        <v>960.9238909177755</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="N45" t="n">
-        <v>960.9238909177755</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="O45" t="n">
-        <v>960.9238909177755</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="P45" t="n">
-        <v>1353.81767574096</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q45" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R45" t="n">
         <v>1899.982462688443</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619923</v>
+        <v>922.2312984619898</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223623</v>
+        <v>786.2936862223601</v>
       </c>
       <c r="D46" t="n">
-        <v>659.011864230587</v>
+        <v>659.011864230585</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648946</v>
+        <v>528.8386092648929</v>
       </c>
       <c r="F46" t="n">
-        <v>393.011785920909</v>
+        <v>393.0117859209075</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965949</v>
+        <v>262.7897670965939</v>
       </c>
       <c r="H46" t="n">
-        <v>155.0284494862029</v>
+        <v>155.0284494862026</v>
       </c>
       <c r="I46" t="n">
-        <v>91.2948321079329</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J46" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557542</v>
+        <v>445.9494722557552</v>
       </c>
       <c r="L46" t="n">
-        <v>835.956648909088</v>
+        <v>835.9566489090892</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473203</v>
       </c>
       <c r="O46" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511879</v>
       </c>
       <c r="P46" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q46" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392369</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960993</v>
+        <v>2543.247039960996</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361587</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T46" t="n">
-        <v>2201.842546468941</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U46" t="n">
-        <v>1957.693048850699</v>
+        <v>1957.693048850695</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.016532340182</v>
+        <v>1712.016532340178</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394149</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X46" t="n">
-        <v>1266.670133721408</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y46" t="n">
-        <v>1076.362316292604</v>
+        <v>1076.362316292601</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>572.5078537121299</v>
       </c>
       <c r="L2" t="n">
-        <v>553.9733664232979</v>
+        <v>68.35880664742751</v>
       </c>
       <c r="M2" t="n">
-        <v>553.0925868901068</v>
+        <v>574.1745158167523</v>
       </c>
       <c r="N2" t="n">
-        <v>552.940946825121</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>532.2174823773789</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>574.3186147275519</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>538.0605578240084</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>266.4680383622</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>559.8400334296485</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>155.222684103809</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>559.9151426395428</v>
       </c>
       <c r="P3" t="n">
-        <v>537.4321651955037</v>
+        <v>558.5140941221492</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8143,7 +8143,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>257.0857000940797</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8152,7 +8152,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>238.7643723192681</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8216,25 +8216,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>572.5078537121299</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>68.35880664742751</v>
       </c>
       <c r="M5" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>574.1342122733447</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>574.3186147275519</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8301,22 +8301,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>559.8400334296485</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>485.4334665623182</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>75.75153676835062</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>110.4928214404737</v>
       </c>
       <c r="N8" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8538,10 +8538,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>173.8486821944324</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8550,10 +8550,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>749.7130252568753</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078879</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8711,7 +8711,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8781,13 +8781,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>769.4073585886035</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8933,13 +8933,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>791.8999401147961</v>
       </c>
       <c r="N14" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9003,13 +9003,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9021,13 +9021,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,10 +9173,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>276.0147300838786</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871893</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9243,25 +9243,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>53.89195754947579</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,10 +9407,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330639</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>489.1847862143723</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9419,10 +9419,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,22 +9474,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>426.8993572042261</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>775.4951334534195</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9501,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296041</v>
       </c>
       <c r="M23" t="n">
-        <v>398.9108788555778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9656,7 +9656,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,22 +9711,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>426.8993572042261</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,10 +9735,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9957,10 +9957,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>776.6671919541075</v>
+        <v>186.3697998820327</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9972,7 +9972,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,16 +10112,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10130,10 +10130,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>488.0298379845275</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>509.7471451685728</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>499.6833922165333</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,7 +10209,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10355,10 +10355,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>924.3306556055956</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>847.0280297050213</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10425,31 +10425,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>817.4090386707334</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10607,7 +10607,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>418.6332501171364</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,7 +10832,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>864.3543792799143</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10844,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171364</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11069,7 +11069,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11078,10 +11078,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>337.7796543000484</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>418.6332501171364</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>66.77209013087152</v>
+        <v>247.0251076856445</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11391,13 +11391,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>418.6332501171364</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>68.15019490184491</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>86.02262841516098</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>68.10191868181072</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.98949189919225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5.992749160595736</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>114.6701458615097</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189919088</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>71.98949189919216</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.98949189919108</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.98949189919225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.98949189919173</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24649,7 +24649,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.98949189919212</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.1362268027148</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>160.1553498542516</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5861175088743</v>
+        <v>151.5861175088754</v>
       </c>
       <c r="E34" t="n">
-        <v>154.4486361530523</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>46.33914686266197</v>
+        <v>154.4969123730886</v>
       </c>
       <c r="H34" t="n">
-        <v>132.2608181713044</v>
+        <v>132.2608181713056</v>
       </c>
       <c r="I34" t="n">
-        <v>88.67339494150406</v>
+        <v>11.27965527397926</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.47073954407586</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.576750594720152e-12</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-2.476099325576797e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-2.735589532676386e-12</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>639889.1448545628</v>
+        <v>641402.5632950125</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642801.3106682117</v>
+        <v>641402.5632950125</v>
       </c>
     </row>
     <row r="4">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>668020.7693206964</v>
+        <v>666946.0560880057</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675065.9168096732</v>
+        <v>675065.9168096733</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675065.9168096732</v>
+        <v>675065.9168096733</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>436832.0010083725</v>
+      </c>
+      <c r="C2" t="n">
         <v>436832.0010083724</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>436832.0010083725</v>
       </c>
-      <c r="D2" t="n">
-        <v>436832.0010083723</v>
-      </c>
       <c r="E2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="F2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530851</v>
       </c>
       <c r="G2" t="n">
         <v>421522.8023530853</v>
@@ -26332,22 +26332,22 @@
         <v>421522.8023530853</v>
       </c>
       <c r="I2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="J2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="K2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="L2" t="n">
-        <v>425855.9816511056</v>
+        <v>425855.9816511053</v>
       </c>
       <c r="M2" t="n">
-        <v>436832.0010083717</v>
+        <v>436832.001008372</v>
       </c>
       <c r="N2" t="n">
-        <v>436832.0010083723</v>
+        <v>436832.0010083722</v>
       </c>
       <c r="O2" t="n">
         <v>436832.0010083722</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172809.969879727</v>
+        <v>179875.0091474112</v>
       </c>
       <c r="C3" t="n">
-        <v>13105.84347019917</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6052.488934389738</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566404</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>134919.6914542162</v>
+        <v>140435.6516662996</v>
       </c>
       <c r="K3" t="n">
-        <v>10440.51617310219</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8077.990108498176</v>
+        <v>8077.990108497246</v>
       </c>
       <c r="M3" t="n">
-        <v>166235.4618077714</v>
+        <v>171091.0921474226</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204502.8433760423</v>
+        <v>204376.6197574105</v>
       </c>
       <c r="C4" t="n">
-        <v>198042.898589885</v>
+        <v>204376.6197574105</v>
       </c>
       <c r="D4" t="n">
-        <v>198042.898589885</v>
+        <v>201350.482296866</v>
       </c>
       <c r="E4" t="n">
-        <v>97985.32791261577</v>
+        <v>103476.8729402365</v>
       </c>
       <c r="F4" t="n">
-        <v>97985.32791261577</v>
+        <v>103476.8729402366</v>
       </c>
       <c r="G4" t="n">
-        <v>97985.32791261574</v>
+        <v>103476.8729402366</v>
       </c>
       <c r="H4" t="n">
-        <v>97985.32791261573</v>
+        <v>103476.8729402366</v>
       </c>
       <c r="I4" t="n">
-        <v>97985.32791261576</v>
+        <v>103476.8729402366</v>
       </c>
       <c r="J4" t="n">
-        <v>97985.32791261577</v>
+        <v>103476.8729402365</v>
       </c>
       <c r="K4" t="n">
-        <v>97985.32791261576</v>
+        <v>103476.8729402365</v>
       </c>
       <c r="L4" t="n">
-        <v>101307.904558356</v>
+        <v>109124.5513413755</v>
       </c>
       <c r="M4" t="n">
-        <v>126559.6437199276</v>
+        <v>131635.2904728591</v>
       </c>
       <c r="N4" t="n">
-        <v>126559.6437199274</v>
+        <v>131635.2904728591</v>
       </c>
       <c r="O4" t="n">
-        <v>126559.6437199275</v>
+        <v>131635.2904728591</v>
       </c>
       <c r="P4" t="n">
-        <v>126559.6437199275</v>
+        <v>131635.2904728592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64979.80849863304</v>
+        <v>66261.58977737308</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>66261.58977737308</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26497,19 +26497,19 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>78598.94787646885</v>
+        <v>77414.28661641372</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482541</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5460.62074602989</v>
+        <v>-13681.21767382232</v>
       </c>
       <c r="C6" t="n">
-        <v>158237.0079108602</v>
+        <v>166193.7914735888</v>
       </c>
       <c r="D6" t="n">
-        <v>171342.8513810592</v>
+        <v>161982.7787396886</v>
       </c>
       <c r="E6" t="n">
-        <v>30048.05569539932</v>
+        <v>24505.48000559426</v>
       </c>
       <c r="F6" t="n">
-        <v>245787.4122520398</v>
+        <v>240244.8365622346</v>
       </c>
       <c r="G6" t="n">
-        <v>245787.4122520399</v>
+        <v>240244.8365622349</v>
       </c>
       <c r="H6" t="n">
-        <v>245787.4122520399</v>
+        <v>240244.8365622347</v>
       </c>
       <c r="I6" t="n">
-        <v>245787.4122520398</v>
+        <v>240244.836562235</v>
       </c>
       <c r="J6" t="n">
-        <v>110867.7207978236</v>
+        <v>99809.18489593542</v>
       </c>
       <c r="K6" t="n">
-        <v>235346.8960789377</v>
+        <v>240244.8365622349</v>
       </c>
       <c r="L6" t="n">
-        <v>237871.1391077826</v>
+        <v>231202.566853628</v>
       </c>
       <c r="M6" t="n">
-        <v>71653.69501584733</v>
+        <v>61722.41792326499</v>
       </c>
       <c r="N6" t="n">
-        <v>237889.1568236195</v>
+        <v>232813.5100706876</v>
       </c>
       <c r="O6" t="n">
-        <v>237889.1568236193</v>
+        <v>232813.5100706877</v>
       </c>
       <c r="P6" t="n">
-        <v>237889.156823619</v>
+        <v>232813.5100706873</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.661323990675</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.783917572857</v>
+        <v>1259.299357374583</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="M2" t="n">
-        <v>25.5771137370169</v>
+        <v>25.57711373701808</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.661323990675</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="C4" t="n">
-        <v>40.56648912491914</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>19.48456019827363</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.556104457262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.661323990675</v>
+        <v>536.7432529173212</v>
       </c>
       <c r="K4" t="n">
-        <v>40.56648912491914</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>584.957588233567</v>
+        <v>604.4421484318394</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.661323990675</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="K4" t="n">
-        <v>40.56648912491914</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>19.48456019827363</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>270.0255303606389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>317.6211912550002</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>132.2926790970726</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>97.74588110032434</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,16 +27673,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>331.3947386960823</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>163.9920841714638</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>53.32812537571807</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>63.97365380058088</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>385.0527817684122</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.65813289307471</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>23.35757892987485</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>233.4515955166426</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.03913730891415e-12</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29758,16 +29758,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4.933267768107612</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>10.09748763562156</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="C34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="D34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="E34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="F34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="G34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="H34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="I34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="J34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="K34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="L34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="M34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="N34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="O34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="P34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="R34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="S34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="T34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="U34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="V34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="W34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="X34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.09748763562272</v>
+        <v>10.09748763562156</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396241</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="X38" t="n">
-        <v>35.6746013726393</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263902</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263946</v>
+        <v>35.67460137263974</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="L2" t="n">
-        <v>515.661323990675</v>
+        <v>30.04676421480459</v>
       </c>
       <c r="M2" t="n">
-        <v>515.661323990675</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="N2" t="n">
-        <v>515.661323990675</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>494.8265230213549</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>515.661323990675</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.9529516479705</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>133.8796558902674</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="P3" t="n">
-        <v>515.661323990675</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34863,7 +34863,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>234.5102602025939</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34872,7 +34872,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>216.3835716612817</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34936,25 +34936,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>30.04676421480459</v>
       </c>
       <c r="M5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35021,22 +35021,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>536.7432529173205</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>464.0904383487766</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>51.13197400356567</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>48.74406945557187</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>150.7519016821044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35270,10 +35270,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>713.948424462066</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>191.638126575265</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35431,7 +35431,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>746.2354688663813</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35653,13 +35653,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>754.4686772153643</v>
       </c>
       <c r="N14" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,10 +35893,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>238.7351072494326</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311652</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>30.72006782725357</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,10 +36127,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.0533324336321</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>451.9051633799263</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36139,10 +36139,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969812</v>
       </c>
       <c r="M23" t="n">
-        <v>361.4796159561459</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36376,7 +36376,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>754.1521052398779</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36850,10 +36850,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>451.9051633799294</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>886.8993927061638</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>809.7484068705752</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37145,31 +37145,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.16953634689344</v>
+        <v>68.16953634689229</v>
       </c>
       <c r="K34" t="n">
-        <v>238.9132464293976</v>
+        <v>238.9132464293965</v>
       </c>
       <c r="L34" t="n">
-        <v>368.3695293471588</v>
+        <v>368.3695293471577</v>
       </c>
       <c r="M34" t="n">
-        <v>405.2346542722397</v>
+        <v>405.2346542722386</v>
       </c>
       <c r="N34" t="n">
-        <v>391.4020440760629</v>
+        <v>391.4020440760618</v>
       </c>
       <c r="O34" t="n">
-        <v>369.1157994333632</v>
+        <v>369.115799433362</v>
       </c>
       <c r="P34" t="n">
-        <v>303.6320451324924</v>
+        <v>303.6320451324913</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.3804474747762</v>
+        <v>138.380447474775</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>779.9777757713016</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37327,7 +37327,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>396.8624089123077</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391034</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.090934301369043e-12</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>827.0747564454682</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37564,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123077</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391018</v>
+        <v>93.74665008391045</v>
       </c>
       <c r="K40" t="n">
-        <v>264.4903601664144</v>
+        <v>264.4903601664147</v>
       </c>
       <c r="L40" t="n">
-        <v>393.9466430841756</v>
+        <v>393.9466430841759</v>
       </c>
       <c r="M40" t="n">
-        <v>430.8117680092565</v>
+        <v>430.8117680092568</v>
       </c>
       <c r="N40" t="n">
-        <v>416.9791578130797</v>
+        <v>416.97915781308</v>
       </c>
       <c r="O40" t="n">
-        <v>394.6929131703799</v>
+        <v>394.6929131703802</v>
       </c>
       <c r="P40" t="n">
-        <v>329.2091588695092</v>
+        <v>329.2091588695095</v>
       </c>
       <c r="Q40" t="n">
-        <v>163.9575612117929</v>
+        <v>163.9575612117932</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37798,10 +37798,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>301.6549796954503</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>396.8624089123077</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391018</v>
+        <v>93.74665008391045</v>
       </c>
       <c r="K43" t="n">
-        <v>264.4903601664144</v>
+        <v>264.4903601664147</v>
       </c>
       <c r="L43" t="n">
-        <v>393.9466430841756</v>
+        <v>393.9466430841759</v>
       </c>
       <c r="M43" t="n">
-        <v>430.8117680092565</v>
+        <v>430.8117680092568</v>
       </c>
       <c r="N43" t="n">
-        <v>416.9791578130797</v>
+        <v>416.97915781308</v>
       </c>
       <c r="O43" t="n">
-        <v>394.6929131703799</v>
+        <v>394.6929131703802</v>
       </c>
       <c r="P43" t="n">
-        <v>329.2091588695092</v>
+        <v>329.2091588695095</v>
       </c>
       <c r="Q43" t="n">
-        <v>163.9575612117929</v>
+        <v>163.9575612117932</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,22 +38023,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>29.38113077484742</v>
+        <v>209.6341483296204</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>396.8624089123077</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391018</v>
+        <v>93.74665008391045</v>
       </c>
       <c r="K46" t="n">
-        <v>264.4903601664144</v>
+        <v>264.4903601664147</v>
       </c>
       <c r="L46" t="n">
-        <v>393.9466430841756</v>
+        <v>393.9466430841759</v>
       </c>
       <c r="M46" t="n">
-        <v>430.8117680092565</v>
+        <v>430.8117680092568</v>
       </c>
       <c r="N46" t="n">
-        <v>416.9791578130797</v>
+        <v>416.97915781308</v>
       </c>
       <c r="O46" t="n">
-        <v>394.6929131703799</v>
+        <v>394.6929131703802</v>
       </c>
       <c r="P46" t="n">
-        <v>329.2091588695092</v>
+        <v>329.2091588695095</v>
       </c>
       <c r="Q46" t="n">
-        <v>163.9575612117929</v>
+        <v>163.9575612117932</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
